--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.67087826776566</v>
+        <v>92.13910288253157</v>
       </c>
       <c r="D2" t="n">
-        <v>11.0772764625101</v>
+        <v>10.11038163047537</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.01839745341904</v>
+        <v>91.18740792408505</v>
       </c>
       <c r="D3" t="n">
-        <v>12.34282129902407</v>
+        <v>10.93140213811551</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.43051095507954</v>
+        <v>91.43209395291937</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6771848588271</v>
+        <v>11.43052755754635</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.65384864873035</v>
+        <v>91.57408842107932</v>
       </c>
       <c r="D5" t="n">
-        <v>10.74231867855618</v>
+        <v>10.2334842116258</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.2759166039547</v>
+        <v>89.01146523561479</v>
       </c>
       <c r="D6" t="n">
-        <v>11.01838570905483</v>
+        <v>10.65348864933304</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.88721833767367</v>
+        <v>87.31924531306687</v>
       </c>
       <c r="D7" t="n">
-        <v>11.69512293580873</v>
+        <v>10.80429553809689</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.48687411206468</v>
+        <v>85.78564511268645</v>
       </c>
       <c r="D8" t="n">
-        <v>12.70991558462892</v>
+        <v>11.34091883606864</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.51807281145292</v>
+        <v>86.83067740424418</v>
       </c>
       <c r="D9" t="n">
-        <v>12.22373176440193</v>
+        <v>11.34931407109471</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>88.05417354804767</v>
+        <v>85.90529365711036</v>
       </c>
       <c r="D10" t="n">
-        <v>11.96128428018272</v>
+        <v>10.17686816512587</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.98530055871873</v>
+        <v>82.92644399054976</v>
       </c>
       <c r="D11" t="n">
-        <v>10.32364571352694</v>
+        <v>9.652940676351003</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.33906423177682</v>
+        <v>82.78237261188244</v>
       </c>
       <c r="D12" t="n">
-        <v>11.50301456036391</v>
+        <v>9.26671586444431</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.74788273990322</v>
+        <v>80.82174743307429</v>
       </c>
       <c r="D13" t="n">
-        <v>10.44716840587914</v>
+        <v>9.790911053241542</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.92331197189731</v>
+        <v>81.42474611884727</v>
       </c>
       <c r="D14" t="n">
-        <v>12.43830870848389</v>
+        <v>10.57930355190605</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.85237379057654</v>
+        <v>79.59557605399581</v>
       </c>
       <c r="D15" t="n">
-        <v>11.54047218886462</v>
+        <v>10.45683542652871</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.24490992641746</v>
+        <v>77.47009294041383</v>
       </c>
       <c r="D16" t="n">
-        <v>11.59519583898706</v>
+        <v>9.768524359866342</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.1712595934849</v>
+        <v>78.70079540136207</v>
       </c>
       <c r="D17" t="n">
-        <v>12.31983397069965</v>
+        <v>9.992347688874533</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.60098799869192</v>
+        <v>76.29718026357381</v>
       </c>
       <c r="D18" t="n">
-        <v>10.98216050245084</v>
+        <v>9.32252912443456</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>76.13164624213901</v>
+        <v>73.19646795344778</v>
       </c>
       <c r="D19" t="n">
-        <v>10.46682359351032</v>
+        <v>9.516877484831319</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.55828870430366</v>
+        <v>73.2811458831758</v>
       </c>
       <c r="D20" t="n">
-        <v>11.86604285858274</v>
+        <v>9.887875877460846</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.53608631064141</v>
+        <v>72.9924693341312</v>
       </c>
       <c r="D21" t="n">
-        <v>9.519108080380885</v>
+        <v>9.321321478630777</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.92662903247702</v>
+        <v>72.50904574573937</v>
       </c>
       <c r="D22" t="n">
-        <v>9.690950780666288</v>
+        <v>9.491925847053128</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.18284313143978</v>
+        <v>70.81403524352912</v>
       </c>
       <c r="D23" t="n">
-        <v>10.66887039902526</v>
+        <v>10.71941568487694</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.32003581660913</v>
+        <v>70.68113178072973</v>
       </c>
       <c r="D24" t="n">
-        <v>13.31776738007725</v>
+        <v>10.70672987402434</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.56347216069555</v>
+        <v>67.83457875154453</v>
       </c>
       <c r="D25" t="n">
-        <v>12.56805009790546</v>
+        <v>10.9901776936227</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.09537281516994</v>
+        <v>67.58014949874786</v>
       </c>
       <c r="D26" t="n">
-        <v>12.55452528440729</v>
+        <v>9.580452928429315</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.75932339637429</v>
+        <v>64.90985001690917</v>
       </c>
       <c r="D27" t="n">
-        <v>9.047520195920685</v>
+        <v>10.61535638157274</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.90358491233528</v>
+        <v>64.06304321527969</v>
       </c>
       <c r="D28" t="n">
-        <v>9.373346075410394</v>
+        <v>11.05086864420789</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.15104131597019</v>
+        <v>64.52941265006301</v>
       </c>
       <c r="D29" t="n">
-        <v>9.38808102677064</v>
+        <v>10.47817306228851</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.06386378597212</v>
+        <v>65.45087421998419</v>
       </c>
       <c r="D30" t="n">
-        <v>10.80928202921511</v>
+        <v>9.299932132302196</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.90924583056536</v>
+        <v>60.47812925709506</v>
       </c>
       <c r="D31" t="n">
-        <v>10.19421862194095</v>
+        <v>12.08217524233091</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.21995437235159</v>
+        <v>60.57726468562014</v>
       </c>
       <c r="D32" t="n">
-        <v>11.05581355275675</v>
+        <v>10.41574398274311</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.86507533216673</v>
+        <v>60.26642839460806</v>
       </c>
       <c r="D33" t="n">
-        <v>10.21502344483141</v>
+        <v>9.789599459885226</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.3153954229157</v>
+        <v>57.74143177626466</v>
       </c>
       <c r="D34" t="n">
-        <v>10.55013389342171</v>
+        <v>9.767644796925097</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.94775540144035</v>
+        <v>58.66401464096932</v>
       </c>
       <c r="D35" t="n">
-        <v>12.27582034419156</v>
+        <v>9.102040904660452</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.63962037801525</v>
+        <v>57.4348613830964</v>
       </c>
       <c r="D36" t="n">
-        <v>10.95853985212623</v>
+        <v>10.72453632429066</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.03136707905709</v>
+        <v>55.40304608205972</v>
       </c>
       <c r="D37" t="n">
-        <v>11.37634282109562</v>
+        <v>10.62899325715409</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.65673811270341</v>
+        <v>55.52116659391952</v>
       </c>
       <c r="D38" t="n">
-        <v>11.46747826122406</v>
+        <v>11.93375546008186</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.08978591214216</v>
+        <v>52.59768866074594</v>
       </c>
       <c r="D39" t="n">
-        <v>11.68360338139397</v>
+        <v>11.09947887328888</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.9477445662375</v>
+        <v>53.75939900971021</v>
       </c>
       <c r="D40" t="n">
-        <v>12.05906173255399</v>
+        <v>10.88686145554215</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.92533088192171</v>
+        <v>52.19183907097175</v>
       </c>
       <c r="D41" t="n">
-        <v>9.749409545178736</v>
+        <v>9.907665207219619</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.2874964465042</v>
+        <v>49.67741998804637</v>
       </c>
       <c r="D42" t="n">
-        <v>10.59246380491438</v>
+        <v>11.61507614343279</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.51156206143798</v>
+        <v>49.31324023078388</v>
       </c>
       <c r="D43" t="n">
-        <v>9.935958850197178</v>
+        <v>11.16169468049494</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.38085521198537</v>
+        <v>46.58648887585637</v>
       </c>
       <c r="D44" t="n">
-        <v>10.69981170591361</v>
+        <v>10.70283644664272</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.57291923400492</v>
+        <v>47.60769588326852</v>
       </c>
       <c r="D45" t="n">
-        <v>10.55196712633696</v>
+        <v>9.934641873156862</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.99589295232663</v>
+        <v>46.31482759331107</v>
       </c>
       <c r="D46" t="n">
-        <v>10.71492796377909</v>
+        <v>11.00971474301645</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.31100823906245</v>
+        <v>44.0590587068853</v>
       </c>
       <c r="D47" t="n">
-        <v>11.14463463181325</v>
+        <v>11.59325478426618</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.54855976106187</v>
+        <v>43.59782692460707</v>
       </c>
       <c r="D48" t="n">
-        <v>9.170568550120933</v>
+        <v>9.960477643863777</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.88018426285456</v>
+        <v>42.85320273640114</v>
       </c>
       <c r="D49" t="n">
-        <v>11.1124031330072</v>
+        <v>11.38703312896701</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.987121068397</v>
+        <v>42.48802979260272</v>
       </c>
       <c r="D50" t="n">
-        <v>10.81678484077769</v>
+        <v>10.3113144277963</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.53783457439559</v>
+        <v>41.90327193168238</v>
       </c>
       <c r="D51" t="n">
-        <v>10.65040256258472</v>
+        <v>10.55730573433716</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.35690616706098</v>
+        <v>39.1836947708506</v>
       </c>
       <c r="D52" t="n">
-        <v>9.738974941346074</v>
+        <v>11.3698508908939</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.43822930726046</v>
+        <v>39.23482433451149</v>
       </c>
       <c r="D53" t="n">
-        <v>11.0649504402946</v>
+        <v>10.70591642389206</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.6834863745647</v>
+        <v>36.79236093894996</v>
       </c>
       <c r="D54" t="n">
-        <v>11.00812399508343</v>
+        <v>11.79074743847466</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.2889689984652</v>
+        <v>36.78546480627226</v>
       </c>
       <c r="D55" t="n">
-        <v>9.150168449271558</v>
+        <v>10.67717237447374</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.44632697756715</v>
+        <v>35.46989441946427</v>
       </c>
       <c r="D56" t="n">
-        <v>9.921385715154235</v>
+        <v>9.481620054426335</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.32070651975067</v>
+        <v>33.68468981560025</v>
       </c>
       <c r="D57" t="n">
-        <v>11.05429193845192</v>
+        <v>10.64932430328291</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.95189770464633</v>
+        <v>34.8976415340333</v>
       </c>
       <c r="D58" t="n">
-        <v>10.03021039878345</v>
+        <v>10.88539284076874</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.40797757035539</v>
+        <v>33.12955311795113</v>
       </c>
       <c r="D59" t="n">
-        <v>11.52161399269747</v>
+        <v>11.38384225373873</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.80892885943538</v>
+        <v>32.82752267271533</v>
       </c>
       <c r="D60" t="n">
-        <v>12.14940395269891</v>
+        <v>10.26828108865058</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.27365551602928</v>
+        <v>28.80469858097235</v>
       </c>
       <c r="D61" t="n">
-        <v>9.980609025936271</v>
+        <v>10.19969567880288</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.46914072067497</v>
+        <v>28.84227774282685</v>
       </c>
       <c r="D62" t="n">
-        <v>10.60536551147363</v>
+        <v>11.3089975515479</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.04030246447022</v>
+        <v>28.22111329451404</v>
       </c>
       <c r="D63" t="n">
-        <v>10.50860333799713</v>
+        <v>10.2675338723001</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.76781456720295</v>
+        <v>27.21954726365974</v>
       </c>
       <c r="D64" t="n">
-        <v>12.03030477206173</v>
+        <v>10.02091116518046</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.84918581824513</v>
+        <v>27.8697515201689</v>
       </c>
       <c r="D65" t="n">
-        <v>10.14259229021115</v>
+        <v>10.46978517046721</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.85985614812902</v>
+        <v>24.43541116024488</v>
       </c>
       <c r="D66" t="n">
-        <v>10.19890363474627</v>
+        <v>10.86209665398034</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.2049535582277</v>
+        <v>26.5537593163654</v>
       </c>
       <c r="D67" t="n">
-        <v>9.124965507397283</v>
+        <v>9.441552392123313</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.85442710951645</v>
+        <v>24.21537506601214</v>
       </c>
       <c r="D68" t="n">
-        <v>10.10859092565554</v>
+        <v>10.54332824942247</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.25544840895655</v>
+        <v>21.97225071920896</v>
       </c>
       <c r="D69" t="n">
-        <v>10.42586195018704</v>
+        <v>10.40961126059507</v>
       </c>
     </row>
   </sheetData>
